--- a/deployment/Omaha_Cal_Info_CE05MOAS-GL384_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CE05MOAS-GL384_00002.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="7920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Mooring OOIBARCODE</t>
   </si>
@@ -166,6 +166,9 @@
   <si>
     <t>CC_bsipar_par_scaling</t>
   </si>
+  <si>
+    <t>OL000370</t>
+  </si>
 </sst>
 </file>
 
@@ -280,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -334,6 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,7 +620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28696,8 +28702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29385,7 +29391,9 @@
       <c r="D18" s="11">
         <v>2</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="12">
         <v>384</v>
       </c>
